--- a/results_method1_and_2/chartbars/classical_approach_echos_a.xlsx
+++ b/results_method1_and_2/chartbars/classical_approach_echos_a.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/echos_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:40009_{913548DA-7BAD-4E9C-ADB6-768C94554B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D3F7694-CBF0-4822-9A08-A71DFB71BE71}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:40009_{913548DA-7BAD-4E9C-ADB6-768C94554B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A68E9A-0F23-4EB5-8AE6-34E3889050F2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24465" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pitch_profile_approach" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>echos_a</t>
   </si>
@@ -691,7 +688,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Initial pitch</a:t>
+              <a:t>Highest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pitch (echos a)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -737,7 +742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Φύλλο1!$Q$3</c:f>
+              <c:f>pitch_profile_approach!$O$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -758,9 +763,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
+              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -775,18 +780,27 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$3:$T$3</c:f>
+              <c:f>pitch_profile_approach!$P$31:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -795,9 +809,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,7 +828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BADE-452E-AC77-6FA1A699627D}"/>
+              <c16:uniqueId val="{00000000-02A4-4090-8630-4906096FF015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -814,7 +837,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Φύλλο1!$Q$4</c:f>
+              <c:f>pitch_profile_approach!$O$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -835,9 +858,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
+              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -852,18 +875,27 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$4:$T$4</c:f>
+              <c:f>pitch_profile_approach!$P$32:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -872,17 +904,26 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BADE-452E-AC77-6FA1A699627D}"/>
+              <c16:uniqueId val="{00000001-02A4-4090-8630-4906096FF015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -891,7 +932,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Φύλλο1!$Q$5</c:f>
+              <c:f>pitch_profile_approach!$O$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,9 +953,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
+              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -929,18 +970,27 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$5:$T$5</c:f>
+              <c:f>pitch_profile_approach!$P$33:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -953,13 +1003,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BADE-452E-AC77-6FA1A699627D}"/>
+              <c16:uniqueId val="{00000002-02A4-4090-8630-4906096FF015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -973,11 +1032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278377408"/>
-        <c:axId val="278379072"/>
+        <c:axId val="278374912"/>
+        <c:axId val="278375744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278377408"/>
+        <c:axId val="278374912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278379072"/>
+        <c:crossAx val="278375744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,10 +1087,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278379072"/>
+        <c:axId val="278375744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1080,9 +1140,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278377408"/>
+        <c:crossAx val="278374912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1202,15 +1264,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Highest</a:t>
+              <a:t>Initial</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>pitch</a:t>
+              <a:t>pitch (echos a)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1256,7 +1318,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$31</c:f>
+              <c:f>pitch_profile_approach!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1277,9 +1339,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
+              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -1294,27 +1356,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$31:$W$31</c:f>
+              <c:f>pitch_profile_approach!$P$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1323,18 +1376,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1342,7 +1386,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02A4-4090-8630-4906096FF015}"/>
+              <c16:uniqueId val="{00000000-E840-4449-92CB-7B1090DF01FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1351,7 +1395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$32</c:f>
+              <c:f>pitch_profile_approach!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1372,9 +1416,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
+              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -1389,27 +1433,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$32:$W$32</c:f>
+              <c:f>pitch_profile_approach!$P$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1418,26 +1453,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02A4-4090-8630-4906096FF015}"/>
+              <c16:uniqueId val="{00000001-E840-4449-92CB-7B1090DF01FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1446,7 +1472,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$33</c:f>
+              <c:f>pitch_profile_approach!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1467,9 +1493,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$30:$W$30</c:f>
+              <c:f>pitch_profile_approach!$P$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>a</c:v>
                 </c:pt>
@@ -1484,27 +1510,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$33:$W$33</c:f>
+              <c:f>pitch_profile_approach!$P$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1517,22 +1534,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-02A4-4090-8630-4906096FF015}"/>
+              <c16:uniqueId val="{00000002-E840-4449-92CB-7B1090DF01FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1546,11 +1554,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278374912"/>
-        <c:axId val="278375744"/>
+        <c:axId val="2103937040"/>
+        <c:axId val="38791072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278374912"/>
+        <c:axId val="2103937040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278375744"/>
+        <c:crossAx val="38791072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,9 +1609,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278375744"/>
+        <c:axId val="38791072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1652,9 +1661,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278374912"/>
+        <c:crossAx val="2103937040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1774,7 +1785,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lowest</a:t>
+              <a:t>Final</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1782,7 +1793,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>pitch</a:t>
+              <a:t>pitch (echos a)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1828,7 +1839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$55</c:f>
+              <c:f>pitch_profile_approach!$O$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1849,22 +1860,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
+              <c:f>pitch_profile_approach!$P$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -1872,31 +1871,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$55:$T$55</c:f>
+              <c:f>pitch_profile_approach!$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F922-40D3-A5B7-D3C98A491E6B}"/>
+              <c16:uniqueId val="{00000000-EBA9-4610-A619-E1E5656BC71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1905,7 +1892,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$56</c:f>
+              <c:f>pitch_profile_approach!$O$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1926,22 +1913,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
+              <c:f>pitch_profile_approach!$P$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -1949,31 +1924,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$56:$T$56</c:f>
+              <c:f>pitch_profile_approach!$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8125</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F922-40D3-A5B7-D3C98A491E6B}"/>
+              <c16:uniqueId val="{00000001-EBA9-4610-A619-E1E5656BC71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1982,7 +1945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$57</c:f>
+              <c:f>pitch_profile_approach!$O$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,22 +1966,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
+              <c:f>pitch_profile_approach!$P$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -2026,31 +1977,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$57:$T$57</c:f>
+              <c:f>pitch_profile_approach!$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F922-40D3-A5B7-D3C98A491E6B}"/>
+              <c16:uniqueId val="{00000002-EBA9-4610-A619-E1E5656BC71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2064,11 +2003,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1020151951"/>
-        <c:axId val="1020154031"/>
+        <c:axId val="42095376"/>
+        <c:axId val="42093712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1020151951"/>
+        <c:axId val="42095376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020154031"/>
+        <c:crossAx val="42093712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2119,10 +2058,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1020154031"/>
+        <c:axId val="42093712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2171,9 +2111,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020151951"/>
+        <c:crossAx val="42095376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2216,13 +2158,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2293,15 +2228,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Final</a:t>
+              <a:t>Lowest</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>pitch</a:t>
+              <a:t>pitch (echos a)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2347,7 +2282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$25</c:f>
+              <c:f>pitch_profile_approach!$O$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2368,10 +2303,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$24</c:f>
+              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -2379,19 +2326,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$25</c:f>
+              <c:f>pitch_profile_approach!$P$55:$T$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23DF-45E4-A9AE-D9B85A53C3D6}"/>
+              <c16:uniqueId val="{00000000-E1FE-41CD-B640-20DF872B06D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2400,7 +2359,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$26</c:f>
+              <c:f>pitch_profile_approach!$O$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2421,10 +2380,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$24</c:f>
+              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -2432,19 +2403,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$26</c:f>
+              <c:f>pitch_profile_approach!$P$56:$T$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23DF-45E4-A9AE-D9B85A53C3D6}"/>
+              <c16:uniqueId val="{00000001-E1FE-41CD-B640-20DF872B06D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2453,7 +2436,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pitch_profile_approach!$O$27</c:f>
+              <c:f>pitch_profile_approach!$O$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2474,10 +2457,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pitch_profile_approach!$P$24</c:f>
+              <c:f>pitch_profile_approach!$P$54:$T$54</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
@@ -2485,19 +2480,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pitch_profile_approach!$P$27</c:f>
+              <c:f>pitch_profile_approach!$P$57:$T$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-23DF-45E4-A9AE-D9B85A53C3D6}"/>
+              <c16:uniqueId val="{00000002-E1FE-41CD-B640-20DF872B06D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2511,11 +2518,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1019511679"/>
-        <c:axId val="681993455"/>
+        <c:axId val="46933024"/>
+        <c:axId val="46933440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1019511679"/>
+        <c:axId val="46933024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681993455"/>
+        <c:crossAx val="46933440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2566,10 +2573,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681993455"/>
+        <c:axId val="46933440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2618,9 +2626,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1019511679"/>
+        <c:crossAx val="46933024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4875,42 +4885,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EF3DB3-7E9B-43C4-A596-F272A8AB1595}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -4938,6 +4912,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E48353-5DC9-44F9-AB84-E24DDC667ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -4946,23 +4956,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C67536A-C3D7-49E8-AAA3-5FB5D36A893E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD05711-969A-440B-A82C-B4FE7CA260DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,23 +4992,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E2EFAF-EB6A-4E57-B1C9-45AA2C64870F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0F18B2-06A5-45DF-A563-C81EBF9A8CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,35 +5027,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Φύλλο1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="Q3" t="str">
-            <v>pro-karykis</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="Q4" t="str">
-            <v>karykis</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="Q5" t="str">
-            <v>balasis</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5347,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M24" sqref="A20:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,44 +5348,47 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>6</v>
@@ -5427,47 +5411,50 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
       <c r="P3" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -5487,59 +5474,62 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.8125</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>6.25E-2</v>
-      </c>
       <c r="T4" s="4">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -5547,47 +5537,50 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="P5" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -5607,43 +5600,43 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="Y6" s="2"/>
@@ -5714,40 +5707,40 @@
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5755,40 +5748,40 @@
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5796,81 +5789,81 @@
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.125</v>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5919,40 +5912,40 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5960,40 +5953,40 @@
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6001,41 +5994,41 @@
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.4375</v>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>7</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -6047,40 +6040,40 @@
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -6100,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -6113,7 +6106,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -6126,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -6191,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="S31" s="4">
-        <v>0.9375</v>
+        <v>15</v>
       </c>
       <c r="T31" s="4">
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="U31" s="4">
         <v>0</v>
@@ -6226,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="U32" s="4">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="V32" s="4">
-        <v>0.75</v>
+        <v>12</v>
       </c>
       <c r="W32" s="4">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="15:23" x14ac:dyDescent="0.25">
@@ -6255,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="U33" s="4">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="V33" s="4">
-        <v>0.4375</v>
+        <v>7</v>
       </c>
       <c r="W33" s="4">
-        <v>0.4375</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="15:20" x14ac:dyDescent="0.25">
@@ -6289,16 +6282,16 @@
         <v>1</v>
       </c>
       <c r="P55" s="4">
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="4">
-        <v>0.375</v>
+        <v>6</v>
       </c>
       <c r="R55" s="4">
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="S55" s="4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -6318,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <v>0.1875</v>
+        <v>3</v>
       </c>
       <c r="T56" s="4">
-        <v>0.8125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="15:20" x14ac:dyDescent="0.25">
@@ -6332,20 +6325,176 @@
         <v>0</v>
       </c>
       <c r="Q57" s="4">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="R57" s="4">
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="S57" s="4">
-        <v>0.5625</v>
+        <v>9</v>
       </c>
       <c r="T57" s="4">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P3:T5">
+  <conditionalFormatting sqref="B3:M6 B12:M15 B21:M24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T3">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:T4">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:T5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31:W31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:W32">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33:W33">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:T55">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56:T56">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:T57">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:T57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6369,7 +6518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P55:T57">
+  <conditionalFormatting sqref="P25:P27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6381,7 +6530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:M6 B12:M15 B21:M24">
+  <conditionalFormatting sqref="P3:T5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
